--- a/Acft Tracker.xlsx
+++ b/Acft Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Lion-Rock-Aviation-Model-Matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4120C-6C89-48FC-B7ED-EFE5C505D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C3E31-692E-4363-9421-96D13E4C7A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6015" yWindow="2895" windowWidth="40920" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Aircraft</t>
   </si>
@@ -155,13 +155,19 @@
   </si>
   <si>
     <t>XP11</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +211,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,6 +285,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +583,7 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,8 +593,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -588,8 +607,11 @@
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -599,8 +621,9 @@
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -610,8 +633,9 @@
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -621,8 +645,11 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -632,8 +659,9 @@
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -643,8 +671,9 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -654,8 +683,9 @@
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -665,8 +695,9 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -676,8 +707,9 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -687,8 +719,9 @@
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -698,8 +731,9 @@
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -709,8 +743,9 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -720,8 +755,9 @@
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -731,8 +767,9 @@
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -742,8 +779,9 @@
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -752,8 +790,9 @@
         <f>$C$2</f>
         <v>Prepar3D</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -762,8 +801,9 @@
         <f>$C$2</f>
         <v>Prepar3D</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -771,8 +811,9 @@
       <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -782,8 +823,9 @@
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -793,8 +835,9 @@
       <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -804,8 +847,9 @@
       <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -813,8 +857,9 @@
       <c r="C23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -822,11 +867,13 @@
       <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Acft Tracker.xlsx
+++ b/Acft Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Lion-Rock-Aviation-Model-Matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C3E31-692E-4363-9421-96D13E4C7A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC36C3-2DFC-4A8C-93C8-FCDBBAC960A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="2895" windowWidth="40920" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="3240" windowWidth="40920" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Aircraft</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,9 @@
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">

--- a/Acft Tracker.xlsx
+++ b/Acft Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Lion-Rock-Aviation-Model-Matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC36C3-2DFC-4A8C-93C8-FCDBBAC960A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F9C62-495C-4131-A381-AF68AB548109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="3240" windowWidth="40920" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>B738</t>
   </si>
@@ -49,9 +43,6 @@
     <t>VR-LRG</t>
   </si>
   <si>
-    <t>Simulator</t>
-  </si>
-  <si>
     <t>A319</t>
   </si>
   <si>
@@ -157,17 +148,56 @@
     <t>XP11</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>IN PROG</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>ACFT</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>TFS</t>
+  </si>
+  <si>
+    <t>VARIANT</t>
+  </si>
+  <si>
+    <t>FAIB</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>CFM_S</t>
+  </si>
+  <si>
+    <t>RR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,16 +249,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -266,15 +316,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -290,6 +413,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,314 +718,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="str">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="str">
         <f>$C$2</f>
         <v>Prepar3D</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4" t="str">
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3" t="str">
         <f>$C$2</f>
         <v>Prepar3D</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
